--- a/03. Source code/BKI_QLHT/bin/Debug/Reports/Templates/f409_bao_cao_danh_muc_thuoc_theo_hsx.xlsx
+++ b/03. Source code/BKI_QLHT/bin/Debug/Reports/Templates/f409_bao_cao_danh_muc_thuoc_theo_hsx.xlsx
@@ -26,11 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Nhà thuốc ABC
-Địa chỉ: Ngõ 123, Kim Ngưu
-Số điện thoại: 01234567</t>
-  </si>
-  <si>
     <t>Người xuất báo cáo</t>
   </si>
   <si>
@@ -62,6 +57,11 @@
   </si>
   <si>
     <t>Hãng sản xuất</t>
+  </si>
+  <si>
+    <t>&lt;ten_don_vi&gt;
+Địa chỉ: &lt;dia_chi&gt;
+Số điện thoại: &lt;so_dien_thoai&gt;</t>
   </si>
 </sst>
 </file>
@@ -195,45 +195,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -519,7 +519,7 @@
   <dimension ref="A1:I351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,460 +533,460 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="A3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="15"/>
+      <c r="E6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    <row r="8" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="G8" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="H8" s="7">
         <v>7</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="I8" s="7">
         <v>8</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2</v>
-      </c>
-      <c r="D8" s="12">
-        <v>3</v>
-      </c>
-      <c r="E8" s="12">
-        <v>4</v>
-      </c>
-      <c r="F8" s="12">
-        <v>5</v>
-      </c>
-      <c r="G8" s="12">
-        <v>6</v>
-      </c>
-      <c r="H8" s="12">
-        <v>7</v>
-      </c>
-      <c r="I8" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="17" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="18" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="19" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="20" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="21" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="22" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="24" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="25" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="26" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="27" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="28" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="29" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="30" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="31" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="32" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="33" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="34" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="35" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="36" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="37" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="38" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="39" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="40" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="41" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="42" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="43" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="44" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="45" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="46" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="47" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="48" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="49" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="50" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="51" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="52" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="53" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="54" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="55" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="56" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="57" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="58" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="59" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="60" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="61" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="62" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="63" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="64" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="65" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="66" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="67" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="68" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="69" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="70" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="71" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="72" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="73" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="74" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="75" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="76" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="77" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="78" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="79" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="80" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="81" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="82" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="83" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="84" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="85" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="86" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="87" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="88" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="89" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="90" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="91" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="92" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="93" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="94" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="95" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="96" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="97" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="98" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="99" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="100" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="101" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="102" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="103" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="104" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="105" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="106" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="107" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="108" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="109" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="110" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="111" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="112" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="113" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="114" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="115" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="116" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="117" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="118" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="119" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="120" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="121" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="122" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="123" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="124" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="125" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="126" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="127" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="128" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="129" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="130" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="131" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="132" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="133" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="134" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="135" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="136" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="137" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="138" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="139" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="140" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="141" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="142" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="143" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="144" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="145" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="146" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="147" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="148" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="149" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="150" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="151" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="152" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="153" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="154" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="155" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="156" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="157" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="158" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="159" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="160" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="161" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="162" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="163" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="164" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="165" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="166" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="167" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="168" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="169" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="170" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="171" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="172" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="173" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="174" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="17" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="18" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="19" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="20" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="21" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="22" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="23" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="24" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="25" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="26" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="27" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="28" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="29" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="30" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="31" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="32" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="33" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="34" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="35" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="36" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="37" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="38" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="39" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="40" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="41" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="42" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="43" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="44" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="45" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="46" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="47" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="48" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="49" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="50" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="51" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="52" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="53" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="54" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="55" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="56" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="57" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="58" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="59" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="60" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="61" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="62" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="63" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="64" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="65" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="66" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="67" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="68" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="69" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="70" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="71" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="72" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="73" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="74" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="75" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="76" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="77" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="78" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="79" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="80" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="81" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="82" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="83" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="84" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="85" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="86" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="87" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="88" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="89" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="90" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="91" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="92" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="93" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="94" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="95" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="96" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="97" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="98" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="99" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="100" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="101" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="102" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="103" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="104" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="105" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="106" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="107" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="108" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="109" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="110" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="111" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="112" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="113" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="114" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="115" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="116" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="117" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="118" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="119" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="120" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="121" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="122" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="123" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="124" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="125" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="126" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="127" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="128" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="129" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="130" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="131" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="132" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="133" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="134" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="135" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="136" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="137" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="138" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="139" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="140" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="141" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="142" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="143" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="144" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="145" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="146" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="147" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="148" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="149" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="150" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="151" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="152" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="153" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="154" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="155" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="156" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="157" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="158" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="159" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="160" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="161" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="162" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="163" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="164" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="165" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="166" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="167" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="168" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="169" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="170" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="171" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="172" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="173" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="F7:I7"/>

--- a/03. Source code/BKI_QLHT/bin/Debug/Reports/Templates/f409_bao_cao_danh_muc_thuoc_theo_hsx.xlsx
+++ b/03. Source code/BKI_QLHT/bin/Debug/Reports/Templates/f409_bao_cao_danh_muc_thuoc_theo_hsx.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02. BKIndex\bki-quan-ly-hieu-thuoc\03. Source code\BKI_QLHT\bin\Debug\Reports\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02. BKIndex\bki-quan-ly-hieu-thuoc-2\03. Source code\BKI_QLHT\bin\Debug\Reports\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,6 +221,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -232,9 +235,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -517,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G350"/>
+  <dimension ref="A1:G351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,15 +532,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
@@ -548,15 +548,15 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
@@ -564,57 +564,60 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="18" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
         <v>5</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="5">
         <v>6</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F8" s="5">
         <v>7</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G8" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1106,8 +1109,8 @@
     <row r="172" spans="1:1" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="13"/>
     </row>
-    <row r="173" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="14"/>
+    <row r="173" spans="1:1" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="13"/>
     </row>
     <row r="174" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
@@ -1639,14 +1642,17 @@
     </row>
     <row r="350" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="14"/>
+    </row>
+    <row r="351" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:G6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
